--- a/Excel/Lv1Stage.xlsx
+++ b/Excel/Lv1Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gravi\ドキュメント\Poor-Railroad-Company\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C21844-61B5-4D0A-A663-0DDEF06ECCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF266584-AEDD-4CFA-8117-FD6AA13C2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -539,10 +539,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI16"/>
+  <dimension ref="A1:BI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="H9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AV19" sqref="AV19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3035,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="AA14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>31</v>
@@ -3208,7 +3208,7 @@
         <v>10</v>
       </c>
       <c r="W15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X15">
         <v>20</v>
@@ -3220,10 +3220,10 @@
         <v>20</v>
       </c>
       <c r="AA15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>31</v>
@@ -3262,25 +3262,25 @@
         <v>31</v>
       </c>
       <c r="AO15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV15">
         <v>20</v>
@@ -3396,28 +3396,28 @@
         <v>20</v>
       </c>
       <c r="X16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>31</v>
@@ -3435,84 +3435,1564 @@
         <v>31</v>
       </c>
       <c r="AK16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BC16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BD16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BG16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BH16">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BI16">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
+        <v>0</v>
+      </c>
+      <c r="BC24">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BI16">
+  <conditionalFormatting sqref="A1:BI14 A16:AK16 A15:AN15 AV15:BI15">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>51</formula>
     </cfRule>
